--- a/data/outputs/能源化工元源数据文件_elsevier/20ELECTROCHEMISTRY COMMUNICATIONS.xlsx
+++ b/data/outputs/能源化工元源数据文件_elsevier/20ELECTROCHEMISTRY COMMUNICATIONS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS279"/>
+  <dimension ref="A1:BU279"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -943,6 +953,12 @@
           <t>2-s2.0-84943191276</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>1021</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1160,6 +1176,12 @@
           <t>2-s2.0-84943146808</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>590</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1377,6 +1399,12 @@
           <t>2-s2.0-84943618872</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>1476</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1604,6 +1632,12 @@
           <t>2-s2.0-84943615696</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>1125</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1829,6 +1863,12 @@
           <t>2-s2.0-84944732834</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>753</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2042,6 +2082,12 @@
           <t>2-s2.0-84944727713</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>1154</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2271,6 +2317,12 @@
           <t>2-s2.0-84946113936</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>1308</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2492,6 +2544,12 @@
           <t>2-s2.0-84946079199</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>411</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2709,6 +2767,12 @@
           <t>2-s2.0-84946019337</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>529</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2926,6 +2990,12 @@
           <t>2-s2.0-84945550665</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>1165</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3147,6 +3217,12 @@
           <t>2-s2.0-84945977642</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>2040</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3376,6 +3452,12 @@
           <t>2-s2.0-84947263600</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>1512</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3597,6 +3679,12 @@
           <t>2-s2.0-84946429408</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>943</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3814,6 +3902,12 @@
           <t>2-s2.0-84946741753</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>968</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4035,6 +4129,12 @@
           <t>2-s2.0-84946750068</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>667</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4252,6 +4352,12 @@
           <t>2-s2.0-84946568070</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>756</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4469,6 +4575,12 @@
           <t>2-s2.0-84946827998</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>661</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4686,6 +4798,12 @@
           <t>2-s2.0-84946823713</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>406</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4911,6 +5029,12 @@
           <t>2-s2.0-84943154405</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>1648</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5136,6 +5260,12 @@
           <t>2-s2.0-84943162165</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>2529</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5357,6 +5487,12 @@
           <t>2-s2.0-84943636500</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>1149</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5582,6 +5718,12 @@
           <t>2-s2.0-84944189655</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>2063</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5807,6 +5949,12 @@
           <t>2-s2.0-84944315790</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>780</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6032,6 +6180,12 @@
           <t>2-s2.0-84944730584</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>1577</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6257,6 +6411,12 @@
           <t>2-s2.0-84945285254</t>
         </is>
       </c>
+      <c r="BT26" t="n">
+        <v>2318</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6478,6 +6638,12 @@
           <t>2-s2.0-84945917793</t>
         </is>
       </c>
+      <c r="BT27" t="n">
+        <v>1891</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6700,6 +6866,12 @@
         <is>
           <t>2-s2.0-84946408725</t>
         </is>
+      </c>
+      <c r="BT28" t="n">
+        <v>1001</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -6916,6 +7088,12 @@
           <t>2-s2.0-84946221686</t>
         </is>
       </c>
+      <c r="BT29" t="n">
+        <v>3685</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7137,6 +7315,12 @@
           <t>2-s2.0-84946202868</t>
         </is>
       </c>
+      <c r="BT30" t="n">
+        <v>1497</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7362,6 +7546,12 @@
           <t>2-s2.0-84946564843</t>
         </is>
       </c>
+      <c r="BT31" t="n">
+        <v>1518</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7585,6 +7775,12 @@
           <t>2-s2.0-84946575204</t>
         </is>
       </c>
+      <c r="BT32" t="n">
+        <v>2257</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7798,6 +7994,12 @@
           <t>2-s2.0-84939438497</t>
         </is>
       </c>
+      <c r="BT33" t="n">
+        <v>1121</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8023,6 +8225,12 @@
           <t>2-s2.0-84939424483</t>
         </is>
       </c>
+      <c r="BT34" t="n">
+        <v>671</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8248,6 +8456,12 @@
           <t>2-s2.0-84939215825</t>
         </is>
       </c>
+      <c r="BT35" t="n">
+        <v>969</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8473,6 +8687,12 @@
           <t>2-s2.0-84938834695</t>
         </is>
       </c>
+      <c r="BT36" t="n">
+        <v>804</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8690,6 +8910,12 @@
           <t>2-s2.0-84938889134</t>
         </is>
       </c>
+      <c r="BT37" t="n">
+        <v>1482</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8919,6 +9145,12 @@
           <t>2-s2.0-84938884065</t>
         </is>
       </c>
+      <c r="BT38" t="n">
+        <v>1438</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -9144,6 +9376,12 @@
           <t>2-s2.0-84940189656</t>
         </is>
       </c>
+      <c r="BT39" t="n">
+        <v>2868</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9369,6 +9607,12 @@
           <t>2-s2.0-84940204698</t>
         </is>
       </c>
+      <c r="BT40" t="n">
+        <v>1387</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9594,6 +9838,12 @@
           <t>2-s2.0-84940510793</t>
         </is>
       </c>
+      <c r="BT41" t="n">
+        <v>2133</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9819,6 +10069,12 @@
           <t>2-s2.0-84940385006</t>
         </is>
       </c>
+      <c r="BT42" t="n">
+        <v>1508</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -10036,6 +10292,12 @@
           <t>2-s2.0-84940374519</t>
         </is>
       </c>
+      <c r="BT43" t="n">
+        <v>828</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -10263,6 +10525,12 @@
           <t>2-s2.0-84940394382</t>
         </is>
       </c>
+      <c r="BT44" t="n">
+        <v>534</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10488,6 +10756,12 @@
           <t>2-s2.0-84940491975</t>
         </is>
       </c>
+      <c r="BT45" t="n">
+        <v>882</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10713,6 +10987,12 @@
           <t>2-s2.0-84940945042</t>
         </is>
       </c>
+      <c r="BT46" t="n">
+        <v>953</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10926,6 +11206,12 @@
           <t>2-s2.0-84940904584</t>
         </is>
       </c>
+      <c r="BT47" t="n">
+        <v>1054</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -11151,6 +11437,12 @@
           <t>2-s2.0-84941275640</t>
         </is>
       </c>
+      <c r="BT48" t="n">
+        <v>652</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -11378,6 +11670,12 @@
           <t>2-s2.0-84941265311</t>
         </is>
       </c>
+      <c r="BT49" t="n">
+        <v>1679</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11603,6 +11901,12 @@
           <t>2-s2.0-84941349514</t>
         </is>
       </c>
+      <c r="BT50" t="n">
+        <v>691</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11824,6 +12128,12 @@
           <t>2-s2.0-84941615035</t>
         </is>
       </c>
+      <c r="BT51" t="n">
+        <v>687</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -12041,6 +12351,12 @@
           <t>2-s2.0-84941946737</t>
         </is>
       </c>
+      <c r="BT52" t="n">
+        <v>1355</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -12266,6 +12582,12 @@
           <t>2-s2.0-84941957327</t>
         </is>
       </c>
+      <c r="BT53" t="n">
+        <v>1996</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -12493,6 +12815,12 @@
           <t>2-s2.0-84941964261</t>
         </is>
       </c>
+      <c r="BT54" t="n">
+        <v>558</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12710,6 +13038,12 @@
           <t>2-s2.0-84943253661</t>
         </is>
       </c>
+      <c r="BT55" t="n">
+        <v>685</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12931,6 +13265,12 @@
           <t>2-s2.0-84943223207</t>
         </is>
       </c>
+      <c r="BT56" t="n">
+        <v>2231</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -13156,6 +13496,12 @@
           <t>2-s2.0-84942608983</t>
         </is>
       </c>
+      <c r="BT57" t="n">
+        <v>1572</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -13377,6 +13723,12 @@
           <t>2-s2.0-84942595576</t>
         </is>
       </c>
+      <c r="BT58" t="n">
+        <v>661</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -13602,6 +13954,12 @@
           <t>2-s2.0-84942602058</t>
         </is>
       </c>
+      <c r="BT59" t="n">
+        <v>2344</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13819,6 +14177,12 @@
           <t>2-s2.0-84942508638</t>
         </is>
       </c>
+      <c r="BT60" t="n">
+        <v>1069</v>
+      </c>
+      <c r="BU60" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -14040,6 +14404,12 @@
           <t>2-s2.0-84943177234</t>
         </is>
       </c>
+      <c r="BT61" t="n">
+        <v>1234</v>
+      </c>
+      <c r="BU61" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -14261,6 +14631,12 @@
           <t>2-s2.0-84943237091</t>
         </is>
       </c>
+      <c r="BT62" t="n">
+        <v>688</v>
+      </c>
+      <c r="BU62" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -14486,6 +14862,12 @@
           <t>2-s2.0-84943250419</t>
         </is>
       </c>
+      <c r="BT63" t="n">
+        <v>903</v>
+      </c>
+      <c r="BU63" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -14699,6 +15081,12 @@
           <t>2-s2.0-84943160137</t>
         </is>
       </c>
+      <c r="BT64" t="n">
+        <v>1993</v>
+      </c>
+      <c r="BU64" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -14920,6 +15308,12 @@
           <t>2-s2.0-84939444671</t>
         </is>
       </c>
+      <c r="BT65" t="n">
+        <v>1574</v>
+      </c>
+      <c r="BU65" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -15147,6 +15541,12 @@
           <t>2-s2.0-84938863676</t>
         </is>
       </c>
+      <c r="BT66" t="n">
+        <v>6235</v>
+      </c>
+      <c r="BU66" t="n">
+        <v>205</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -15373,6 +15773,12 @@
         <is>
           <t>2-s2.0-84939225174</t>
         </is>
+      </c>
+      <c r="BT67" t="n">
+        <v>3061</v>
+      </c>
+      <c r="BU67" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="68">
@@ -15583,6 +15989,12 @@
           <t>2-s2.0-84940210512</t>
         </is>
       </c>
+      <c r="BT68" t="n">
+        <v>2559</v>
+      </c>
+      <c r="BU68" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -15808,6 +16220,12 @@
           <t>2-s2.0-84940194126</t>
         </is>
       </c>
+      <c r="BT69" t="n">
+        <v>1206</v>
+      </c>
+      <c r="BU69" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -16033,6 +16451,12 @@
           <t>2-s2.0-84940190943</t>
         </is>
       </c>
+      <c r="BT70" t="n">
+        <v>573</v>
+      </c>
+      <c r="BU70" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -16250,6 +16674,12 @@
           <t>2-s2.0-84940201077</t>
         </is>
       </c>
+      <c r="BT71" t="n">
+        <v>1984</v>
+      </c>
+      <c r="BU71" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -16477,6 +16907,12 @@
           <t>2-s2.0-84940568829</t>
         </is>
       </c>
+      <c r="BT72" t="n">
+        <v>3541</v>
+      </c>
+      <c r="BU72" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -16694,6 +17130,12 @@
           <t>2-s2.0-84940550613</t>
         </is>
       </c>
+      <c r="BT73" t="n">
+        <v>2655</v>
+      </c>
+      <c r="BU73" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -16911,6 +17353,12 @@
           <t>2-s2.0-84940537687</t>
         </is>
       </c>
+      <c r="BT74" t="n">
+        <v>5584</v>
+      </c>
+      <c r="BU74" t="n">
+        <v>118</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -17128,6 +17576,12 @@
           <t>2-s2.0-84940930765</t>
         </is>
       </c>
+      <c r="BT75" t="n">
+        <v>558</v>
+      </c>
+      <c r="BU75" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -17349,6 +17803,12 @@
           <t>2-s2.0-84941121206</t>
         </is>
       </c>
+      <c r="BT76" t="n">
+        <v>2296</v>
+      </c>
+      <c r="BU76" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -17572,6 +18032,12 @@
           <t>2-s2.0-84941034547</t>
         </is>
       </c>
+      <c r="BT77" t="n">
+        <v>3901</v>
+      </c>
+      <c r="BU77" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -17797,6 +18263,12 @@
           <t>2-s2.0-84941342676</t>
         </is>
       </c>
+      <c r="BT78" t="n">
+        <v>826</v>
+      </c>
+      <c r="BU78" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -18014,6 +18486,12 @@
           <t>2-s2.0-84941636028</t>
         </is>
       </c>
+      <c r="BT79" t="n">
+        <v>704</v>
+      </c>
+      <c r="BU79" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -18241,6 +18719,12 @@
           <t>2-s2.0-84943255770</t>
         </is>
       </c>
+      <c r="BT80" t="n">
+        <v>10523</v>
+      </c>
+      <c r="BU80" t="n">
+        <v>238</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -18466,6 +18950,12 @@
           <t>2-s2.0-84943262715</t>
         </is>
       </c>
+      <c r="BT81" t="n">
+        <v>1455</v>
+      </c>
+      <c r="BU81" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -18695,6 +19185,12 @@
           <t>2-s2.0-84943192400</t>
         </is>
       </c>
+      <c r="BT82" t="n">
+        <v>1863</v>
+      </c>
+      <c r="BU82" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -18920,6 +19416,12 @@
           <t>2-s2.0-84943159117</t>
         </is>
       </c>
+      <c r="BT83" t="n">
+        <v>1011</v>
+      </c>
+      <c r="BU83" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -19137,6 +19639,12 @@
           <t>2-s2.0-84935477635</t>
         </is>
       </c>
+      <c r="BT84" t="n">
+        <v>507</v>
+      </c>
+      <c r="BU84" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -19354,6 +19862,12 @@
           <t>2-s2.0-84936743390</t>
         </is>
       </c>
+      <c r="BT85" t="n">
+        <v>846</v>
+      </c>
+      <c r="BU85" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -19579,6 +20093,12 @@
           <t>2-s2.0-84936866323</t>
         </is>
       </c>
+      <c r="BT86" t="n">
+        <v>566</v>
+      </c>
+      <c r="BU86" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -19802,6 +20322,12 @@
           <t>2-s2.0-84936862053</t>
         </is>
       </c>
+      <c r="BT87" t="n">
+        <v>1136</v>
+      </c>
+      <c r="BU87" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -20019,6 +20545,12 @@
           <t>2-s2.0-84936936358</t>
         </is>
       </c>
+      <c r="BT88" t="n">
+        <v>1192</v>
+      </c>
+      <c r="BU88" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -20236,6 +20768,12 @@
           <t>2-s2.0-84953873486</t>
         </is>
       </c>
+      <c r="BT89" t="n">
+        <v>503</v>
+      </c>
+      <c r="BU89" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -20460,6 +20998,12 @@
         <is>
           <t>2-s2.0-84937541159</t>
         </is>
+      </c>
+      <c r="BT90" t="n">
+        <v>1715</v>
+      </c>
+      <c r="BU90" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="91">
@@ -20670,6 +21214,12 @@
           <t>2-s2.0-84937550794</t>
         </is>
       </c>
+      <c r="BT91" t="n">
+        <v>411</v>
+      </c>
+      <c r="BU91" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -20895,6 +21445,12 @@
           <t>2-s2.0-84937801413</t>
         </is>
       </c>
+      <c r="BT92" t="n">
+        <v>760</v>
+      </c>
+      <c r="BU92" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -21120,6 +21676,12 @@
           <t>2-s2.0-84938071363</t>
         </is>
       </c>
+      <c r="BT93" t="n">
+        <v>1031</v>
+      </c>
+      <c r="BU93" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -21341,6 +21903,12 @@
           <t>2-s2.0-84937777346</t>
         </is>
       </c>
+      <c r="BT94" t="n">
+        <v>418</v>
+      </c>
+      <c r="BU94" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -21566,6 +22134,12 @@
           <t>2-s2.0-84938281944</t>
         </is>
       </c>
+      <c r="BT95" t="n">
+        <v>564</v>
+      </c>
+      <c r="BU95" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -21783,6 +22357,12 @@
           <t>2-s2.0-84938344580</t>
         </is>
       </c>
+      <c r="BT96" t="n">
+        <v>1061</v>
+      </c>
+      <c r="BU96" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -22000,6 +22580,12 @@
           <t>2-s2.0-84938283929</t>
         </is>
       </c>
+      <c r="BT97" t="n">
+        <v>922</v>
+      </c>
+      <c r="BU97" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -22217,6 +22803,12 @@
           <t>2-s2.0-84938583197</t>
         </is>
       </c>
+      <c r="BT98" t="n">
+        <v>1377</v>
+      </c>
+      <c r="BU98" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -22442,6 +23034,12 @@
           <t>2-s2.0-84938875546</t>
         </is>
       </c>
+      <c r="BT99" t="n">
+        <v>472</v>
+      </c>
+      <c r="BU99" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -22667,6 +23265,12 @@
           <t>2-s2.0-84939775187</t>
         </is>
       </c>
+      <c r="BT100" t="n">
+        <v>1416</v>
+      </c>
+      <c r="BU100" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -22892,6 +23496,12 @@
           <t>2-s2.0-84934759274</t>
         </is>
       </c>
+      <c r="BT101" t="n">
+        <v>1411</v>
+      </c>
+      <c r="BU101" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -23117,6 +23727,12 @@
           <t>2-s2.0-84936936726</t>
         </is>
       </c>
+      <c r="BT102" t="n">
+        <v>978</v>
+      </c>
+      <c r="BU102" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -23344,6 +23960,12 @@
           <t>2-s2.0-84936943258</t>
         </is>
       </c>
+      <c r="BT103" t="n">
+        <v>1800</v>
+      </c>
+      <c r="BU103" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -23569,6 +24191,12 @@
           <t>2-s2.0-84937719951</t>
         </is>
       </c>
+      <c r="BT104" t="n">
+        <v>641</v>
+      </c>
+      <c r="BU104" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -23786,6 +24414,12 @@
           <t>2-s2.0-84938082229</t>
         </is>
       </c>
+      <c r="BT105" t="n">
+        <v>2329</v>
+      </c>
+      <c r="BU105" t="n">
+        <v>94</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -24007,6 +24641,12 @@
           <t>2-s2.0-84938259052</t>
         </is>
       </c>
+      <c r="BT106" t="n">
+        <v>1982</v>
+      </c>
+      <c r="BU106" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -24228,6 +24868,12 @@
           <t>2-s2.0-84938230702</t>
         </is>
       </c>
+      <c r="BT107" t="n">
+        <v>997</v>
+      </c>
+      <c r="BU107" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -24445,6 +25091,12 @@
           <t>2-s2.0-84938151980</t>
         </is>
       </c>
+      <c r="BT108" t="n">
+        <v>1506</v>
+      </c>
+      <c r="BU108" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -24666,6 +25318,12 @@
           <t>2-s2.0-84938305427</t>
         </is>
       </c>
+      <c r="BT109" t="n">
+        <v>2129</v>
+      </c>
+      <c r="BU109" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -24887,6 +25545,12 @@
       <c r="BQ110" t="inlineStr"/>
       <c r="BR110" t="inlineStr"/>
       <c r="BS110" t="inlineStr"/>
+      <c r="BT110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -25111,6 +25775,12 @@
         <is>
           <t>2-s2.0-84930941613</t>
         </is>
+      </c>
+      <c r="BT111" t="n">
+        <v>1123</v>
+      </c>
+      <c r="BU111" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="112">
@@ -25321,6 +25991,12 @@
           <t>2-s2.0-84930934783</t>
         </is>
       </c>
+      <c r="BT112" t="n">
+        <v>493</v>
+      </c>
+      <c r="BU112" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -25534,6 +26210,12 @@
           <t>2-s2.0-84934933566</t>
         </is>
       </c>
+      <c r="BT113" t="n">
+        <v>1670</v>
+      </c>
+      <c r="BU113" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -25759,6 +26441,12 @@
           <t>2-s2.0-84934888024</t>
         </is>
       </c>
+      <c r="BT114" t="n">
+        <v>532</v>
+      </c>
+      <c r="BU114" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -25984,6 +26672,12 @@
           <t>2-s2.0-84934919004</t>
         </is>
       </c>
+      <c r="BT115" t="n">
+        <v>1485</v>
+      </c>
+      <c r="BU115" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -26197,6 +26891,12 @@
           <t>2-s2.0-84935031022</t>
         </is>
       </c>
+      <c r="BT116" t="n">
+        <v>649</v>
+      </c>
+      <c r="BU116" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -26418,6 +27118,12 @@
           <t>2-s2.0-84935029349</t>
         </is>
       </c>
+      <c r="BT117" t="n">
+        <v>1362</v>
+      </c>
+      <c r="BU117" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -26643,6 +27349,12 @@
           <t>2-s2.0-84934902877</t>
         </is>
       </c>
+      <c r="BT118" t="n">
+        <v>1535</v>
+      </c>
+      <c r="BU118" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -26868,6 +27580,12 @@
           <t>2-s2.0-84932618400</t>
         </is>
       </c>
+      <c r="BT119" t="n">
+        <v>843</v>
+      </c>
+      <c r="BU119" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -27083,6 +27801,12 @@
           <t>2-s2.0-84934300304</t>
         </is>
       </c>
+      <c r="BT120" t="n">
+        <v>770</v>
+      </c>
+      <c r="BU120" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -27300,6 +28024,12 @@
           <t>2-s2.0-84947207556</t>
         </is>
       </c>
+      <c r="BT121" t="n">
+        <v>949</v>
+      </c>
+      <c r="BU121" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -27521,6 +28251,12 @@
           <t>2-s2.0-84934271629</t>
         </is>
       </c>
+      <c r="BT122" t="n">
+        <v>635</v>
+      </c>
+      <c r="BU122" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -27748,6 +28484,12 @@
           <t>2-s2.0-84947203694</t>
         </is>
       </c>
+      <c r="BT123" t="n">
+        <v>1236</v>
+      </c>
+      <c r="BU123" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -27969,6 +28711,12 @@
           <t>2-s2.0-84931269829</t>
         </is>
       </c>
+      <c r="BT124" t="n">
+        <v>1474</v>
+      </c>
+      <c r="BU124" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -28194,6 +28942,12 @@
           <t>2-s2.0-84934951956</t>
         </is>
       </c>
+      <c r="BT125" t="n">
+        <v>1132</v>
+      </c>
+      <c r="BU125" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -28423,6 +29177,12 @@
           <t>2-s2.0-84934975614</t>
         </is>
       </c>
+      <c r="BT126" t="n">
+        <v>4535</v>
+      </c>
+      <c r="BU126" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -28648,6 +29408,12 @@
           <t>2-s2.0-84934291478</t>
         </is>
       </c>
+      <c r="BT127" t="n">
+        <v>924</v>
+      </c>
+      <c r="BU127" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -28865,6 +29631,12 @@
           <t>2-s2.0-84929157673</t>
         </is>
       </c>
+      <c r="BT128" t="n">
+        <v>1808</v>
+      </c>
+      <c r="BU128" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -29081,6 +29853,12 @@
         <is>
           <t>2-s2.0-84929178852</t>
         </is>
+      </c>
+      <c r="BT129" t="n">
+        <v>1744</v>
+      </c>
+      <c r="BU129" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="130">
@@ -29291,6 +30069,12 @@
           <t>2-s2.0-84929627050</t>
         </is>
       </c>
+      <c r="BT130" t="n">
+        <v>771</v>
+      </c>
+      <c r="BU130" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -29508,6 +30292,12 @@
           <t>2-s2.0-84929648768</t>
         </is>
       </c>
+      <c r="BT131" t="n">
+        <v>745</v>
+      </c>
+      <c r="BU131" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -29732,6 +30522,12 @@
         <is>
           <t>2-s2.0-84930684826</t>
         </is>
+      </c>
+      <c r="BT132" t="n">
+        <v>1661</v>
+      </c>
+      <c r="BU132" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="133">
@@ -29956,6 +30752,12 @@
           <t>2-s2.0-84935024665</t>
         </is>
       </c>
+      <c r="BT133" t="n">
+        <v>950</v>
+      </c>
+      <c r="BU133" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -30177,6 +30979,12 @@
           <t>2-s2.0-84930947501</t>
         </is>
       </c>
+      <c r="BT134" t="n">
+        <v>1604</v>
+      </c>
+      <c r="BU134" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -30398,6 +31206,12 @@
           <t>2-s2.0-84930933096</t>
         </is>
       </c>
+      <c r="BT135" t="n">
+        <v>1170</v>
+      </c>
+      <c r="BU135" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -30619,6 +31433,12 @@
           <t>2-s2.0-84935021550</t>
         </is>
       </c>
+      <c r="BT136" t="n">
+        <v>915</v>
+      </c>
+      <c r="BU136" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -30844,6 +31664,12 @@
           <t>2-s2.0-84934969935</t>
         </is>
       </c>
+      <c r="BT137" t="n">
+        <v>664</v>
+      </c>
+      <c r="BU137" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -31065,6 +31891,12 @@
           <t>2-s2.0-84929358936</t>
         </is>
       </c>
+      <c r="BT138" t="n">
+        <v>2289</v>
+      </c>
+      <c r="BU138" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -31290,6 +32122,12 @@
           <t>2-s2.0-84929157588</t>
         </is>
       </c>
+      <c r="BT139" t="n">
+        <v>870</v>
+      </c>
+      <c r="BU139" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -31507,6 +32345,12 @@
           <t>2-s2.0-84929172624</t>
         </is>
       </c>
+      <c r="BT140" t="n">
+        <v>1530</v>
+      </c>
+      <c r="BU140" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -31736,6 +32580,12 @@
           <t>2-s2.0-84929332708</t>
         </is>
       </c>
+      <c r="BT141" t="n">
+        <v>892</v>
+      </c>
+      <c r="BU141" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -31959,6 +32809,12 @@
           <t>2-s2.0-84929615381</t>
         </is>
       </c>
+      <c r="BT142" t="n">
+        <v>6369</v>
+      </c>
+      <c r="BU142" t="n">
+        <v>123</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -32184,6 +33040,12 @@
           <t>2-s2.0-84929625409</t>
         </is>
       </c>
+      <c r="BT143" t="n">
+        <v>1366</v>
+      </c>
+      <c r="BU143" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -32409,6 +33271,12 @@
           <t>2-s2.0-84930659818</t>
         </is>
       </c>
+      <c r="BT144" t="n">
+        <v>1673</v>
+      </c>
+      <c r="BU144" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -32636,6 +33504,12 @@
           <t>2-s2.0-84930944340</t>
         </is>
       </c>
+      <c r="BT145" t="n">
+        <v>2201</v>
+      </c>
+      <c r="BU145" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -32861,6 +33735,12 @@
           <t>2-s2.0-84930965821</t>
         </is>
       </c>
+      <c r="BT146" t="n">
+        <v>1814</v>
+      </c>
+      <c r="BU146" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -33078,6 +33958,12 @@
           <t>2-s2.0-84927560333</t>
         </is>
       </c>
+      <c r="BT147" t="n">
+        <v>577</v>
+      </c>
+      <c r="BU147" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -33305,6 +34191,12 @@
           <t>2-s2.0-84927722790</t>
         </is>
       </c>
+      <c r="BT148" t="n">
+        <v>1895</v>
+      </c>
+      <c r="BU148" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -33518,6 +34410,12 @@
           <t>2-s2.0-84928412761</t>
         </is>
       </c>
+      <c r="BT149" t="n">
+        <v>473</v>
+      </c>
+      <c r="BU149" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -33743,6 +34641,12 @@
           <t>2-s2.0-84928548309</t>
         </is>
       </c>
+      <c r="BT150" t="n">
+        <v>695</v>
+      </c>
+      <c r="BU150" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -33968,6 +34872,12 @@
           <t>2-s2.0-84928549564</t>
         </is>
       </c>
+      <c r="BT151" t="n">
+        <v>698</v>
+      </c>
+      <c r="BU151" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -34189,6 +35099,12 @@
           <t>2-s2.0-84929492563</t>
         </is>
       </c>
+      <c r="BT152" t="n">
+        <v>624</v>
+      </c>
+      <c r="BU152" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -34414,6 +35330,12 @@
           <t>2-s2.0-84929485776</t>
         </is>
       </c>
+      <c r="BT153" t="n">
+        <v>440</v>
+      </c>
+      <c r="BU153" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -34635,6 +35557,12 @@
           <t>2-s2.0-84928653189</t>
         </is>
       </c>
+      <c r="BT154" t="n">
+        <v>2283</v>
+      </c>
+      <c r="BU154" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -34860,6 +35788,12 @@
           <t>2-s2.0-84928969597</t>
         </is>
       </c>
+      <c r="BT155" t="n">
+        <v>1186</v>
+      </c>
+      <c r="BU155" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -35085,6 +36019,12 @@
           <t>2-s2.0-84927651051</t>
         </is>
       </c>
+      <c r="BT156" t="n">
+        <v>5331</v>
+      </c>
+      <c r="BU156" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -35310,6 +36250,12 @@
           <t>2-s2.0-84928380684</t>
         </is>
       </c>
+      <c r="BT157" t="n">
+        <v>1013</v>
+      </c>
+      <c r="BU157" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -35535,6 +36481,12 @@
           <t>2-s2.0-84928538497</t>
         </is>
       </c>
+      <c r="BT158" t="n">
+        <v>4761</v>
+      </c>
+      <c r="BU158" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -35760,6 +36712,12 @@
           <t>2-s2.0-84928563509</t>
         </is>
       </c>
+      <c r="BT159" t="n">
+        <v>849</v>
+      </c>
+      <c r="BU159" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -35977,6 +36935,12 @@
           <t>2-s2.0-84929456291</t>
         </is>
       </c>
+      <c r="BT160" t="n">
+        <v>1523</v>
+      </c>
+      <c r="BU160" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -36202,6 +37166,12 @@
           <t>2-s2.0-84929466529</t>
         </is>
       </c>
+      <c r="BT161" t="n">
+        <v>1090</v>
+      </c>
+      <c r="BU161" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -36427,6 +37397,12 @@
           <t>2-s2.0-84929455923</t>
         </is>
       </c>
+      <c r="BT162" t="n">
+        <v>1154</v>
+      </c>
+      <c r="BU162" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -36640,6 +37616,12 @@
           <t>2-s2.0-84928941622</t>
         </is>
       </c>
+      <c r="BT163" t="n">
+        <v>1509</v>
+      </c>
+      <c r="BU163" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -36865,6 +37847,12 @@
           <t>2-s2.0-84925403142</t>
         </is>
       </c>
+      <c r="BT164" t="n">
+        <v>2735</v>
+      </c>
+      <c r="BU164" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -37090,6 +38078,12 @@
           <t>2-s2.0-84925447211</t>
         </is>
       </c>
+      <c r="BT165" t="n">
+        <v>1551</v>
+      </c>
+      <c r="BU165" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -37315,6 +38309,12 @@
           <t>2-s2.0-84925401961</t>
         </is>
       </c>
+      <c r="BT166" t="n">
+        <v>817</v>
+      </c>
+      <c r="BU166" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -37540,6 +38540,12 @@
           <t>2-s2.0-84925446533</t>
         </is>
       </c>
+      <c r="BT167" t="n">
+        <v>987</v>
+      </c>
+      <c r="BU167" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -37761,6 +38767,12 @@
           <t>2-s2.0-84925454846</t>
         </is>
       </c>
+      <c r="BT168" t="n">
+        <v>766</v>
+      </c>
+      <c r="BU168" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -37986,6 +38998,12 @@
           <t>2-s2.0-84949116941</t>
         </is>
       </c>
+      <c r="BT169" t="n">
+        <v>1104</v>
+      </c>
+      <c r="BU169" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -38207,6 +39225,12 @@
           <t>2-s2.0-84926430847</t>
         </is>
       </c>
+      <c r="BT170" t="n">
+        <v>1992</v>
+      </c>
+      <c r="BU170" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -38432,6 +39456,12 @@
           <t>2-s2.0-84926451314</t>
         </is>
       </c>
+      <c r="BT171" t="n">
+        <v>1401</v>
+      </c>
+      <c r="BU171" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -38653,6 +39683,12 @@
           <t>2-s2.0-84926612802</t>
         </is>
       </c>
+      <c r="BT172" t="n">
+        <v>975</v>
+      </c>
+      <c r="BU172" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -38870,6 +39906,12 @@
           <t>2-s2.0-84926622166</t>
         </is>
       </c>
+      <c r="BT173" t="n">
+        <v>1208</v>
+      </c>
+      <c r="BU173" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -39091,6 +40133,12 @@
           <t>2-s2.0-84927169431</t>
         </is>
       </c>
+      <c r="BT174" t="n">
+        <v>1006</v>
+      </c>
+      <c r="BU174" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -39310,6 +40358,12 @@
           <t>2-s2.0-84925813591</t>
         </is>
       </c>
+      <c r="BT175" t="n">
+        <v>2251</v>
+      </c>
+      <c r="BU175" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -39535,6 +40589,12 @@
           <t>2-s2.0-84925709872</t>
         </is>
       </c>
+      <c r="BT176" t="n">
+        <v>1043</v>
+      </c>
+      <c r="BU176" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -39752,6 +40812,12 @@
           <t>2-s2.0-84961288529</t>
         </is>
       </c>
+      <c r="BT177" t="n">
+        <v>1155</v>
+      </c>
+      <c r="BU177" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -39978,6 +41044,12 @@
         <is>
           <t>2-s2.0-84926360128</t>
         </is>
+      </c>
+      <c r="BT178" t="n">
+        <v>844</v>
+      </c>
+      <c r="BU178" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="179">
@@ -40188,6 +41260,12 @@
           <t>2-s2.0-84924361988</t>
         </is>
       </c>
+      <c r="BT179" t="n">
+        <v>678</v>
+      </c>
+      <c r="BU179" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -40413,6 +41491,12 @@
           <t>2-s2.0-84924589149</t>
         </is>
       </c>
+      <c r="BT180" t="n">
+        <v>1421</v>
+      </c>
+      <c r="BU180" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -40638,6 +41722,12 @@
           <t>2-s2.0-84924599463</t>
         </is>
       </c>
+      <c r="BT181" t="n">
+        <v>987</v>
+      </c>
+      <c r="BU181" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -40863,6 +41953,12 @@
           <t>2-s2.0-84924765178</t>
         </is>
       </c>
+      <c r="BT182" t="n">
+        <v>705</v>
+      </c>
+      <c r="BU182" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -41088,6 +42184,12 @@
           <t>2-s2.0-84924787138</t>
         </is>
       </c>
+      <c r="BT183" t="n">
+        <v>1872</v>
+      </c>
+      <c r="BU183" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -41309,6 +42411,12 @@
           <t>2-s2.0-84924962981</t>
         </is>
       </c>
+      <c r="BT184" t="n">
+        <v>906</v>
+      </c>
+      <c r="BU184" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -41526,6 +42634,12 @@
           <t>2-s2.0-84925445335</t>
         </is>
       </c>
+      <c r="BT185" t="n">
+        <v>964</v>
+      </c>
+      <c r="BU185" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -41751,6 +42865,12 @@
           <t>2-s2.0-84925321404</t>
         </is>
       </c>
+      <c r="BT186" t="n">
+        <v>2329</v>
+      </c>
+      <c r="BU186" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -41976,6 +43096,12 @@
           <t>2-s2.0-84925673071</t>
         </is>
       </c>
+      <c r="BT187" t="n">
+        <v>2561</v>
+      </c>
+      <c r="BU187" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -42201,6 +43327,12 @@
           <t>2-s2.0-84924348350</t>
         </is>
       </c>
+      <c r="BT188" t="n">
+        <v>725</v>
+      </c>
+      <c r="BU188" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -42428,6 +43560,12 @@
           <t>2-s2.0-84924536127</t>
         </is>
       </c>
+      <c r="BT189" t="n">
+        <v>735</v>
+      </c>
+      <c r="BU189" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -42653,6 +43791,12 @@
           <t>2-s2.0-84924559959</t>
         </is>
       </c>
+      <c r="BT190" t="n">
+        <v>2921</v>
+      </c>
+      <c r="BU190" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -42878,6 +44022,12 @@
           <t>2-s2.0-84924631491</t>
         </is>
       </c>
+      <c r="BT191" t="n">
+        <v>1485</v>
+      </c>
+      <c r="BU191" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -43103,6 +44253,12 @@
           <t>2-s2.0-84922723409</t>
         </is>
       </c>
+      <c r="BT192" t="n">
+        <v>1440</v>
+      </c>
+      <c r="BU192" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -43327,6 +44483,12 @@
         <is>
           <t>2-s2.0-84922717242</t>
         </is>
+      </c>
+      <c r="BT193" t="n">
+        <v>653</v>
+      </c>
+      <c r="BU193" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="194">
@@ -43537,6 +44699,12 @@
           <t>2-s2.0-84923166607</t>
         </is>
       </c>
+      <c r="BT194" t="n">
+        <v>682</v>
+      </c>
+      <c r="BU194" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -43764,6 +44932,12 @@
           <t>2-s2.0-84923188804</t>
         </is>
       </c>
+      <c r="BT195" t="n">
+        <v>1167</v>
+      </c>
+      <c r="BU195" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -43991,6 +45165,12 @@
           <t>2-s2.0-84923303342</t>
         </is>
       </c>
+      <c r="BT196" t="n">
+        <v>2125</v>
+      </c>
+      <c r="BU196" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -44208,6 +45388,12 @@
           <t>2-s2.0-84923280158</t>
         </is>
       </c>
+      <c r="BT197" t="n">
+        <v>425</v>
+      </c>
+      <c r="BU197" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -44433,6 +45619,12 @@
           <t>2-s2.0-84923372423</t>
         </is>
       </c>
+      <c r="BT198" t="n">
+        <v>765</v>
+      </c>
+      <c r="BU198" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -44658,6 +45850,12 @@
           <t>2-s2.0-84923371542</t>
         </is>
       </c>
+      <c r="BT199" t="n">
+        <v>851</v>
+      </c>
+      <c r="BU199" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -44883,6 +46081,12 @@
           <t>2-s2.0-84922731388</t>
         </is>
       </c>
+      <c r="BT200" t="n">
+        <v>1403</v>
+      </c>
+      <c r="BU200" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -45100,6 +46304,12 @@
           <t>2-s2.0-84923299616</t>
         </is>
       </c>
+      <c r="BT201" t="n">
+        <v>3098</v>
+      </c>
+      <c r="BU201" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -45327,6 +46537,12 @@
           <t>2-s2.0-84921358867</t>
         </is>
       </c>
+      <c r="BT202" t="n">
+        <v>2092</v>
+      </c>
+      <c r="BU202" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -45556,6 +46772,12 @@
           <t>2-s2.0-84921324526</t>
         </is>
       </c>
+      <c r="BT203" t="n">
+        <v>2263</v>
+      </c>
+      <c r="BU203" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -45781,6 +47003,12 @@
           <t>2-s2.0-84921414883</t>
         </is>
       </c>
+      <c r="BT204" t="n">
+        <v>1540</v>
+      </c>
+      <c r="BU204" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -46006,6 +47234,12 @@
           <t>2-s2.0-84922455886</t>
         </is>
       </c>
+      <c r="BT205" t="n">
+        <v>2283</v>
+      </c>
+      <c r="BU205" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -46231,6 +47465,12 @@
           <t>2-s2.0-84921414884</t>
         </is>
       </c>
+      <c r="BT206" t="n">
+        <v>809</v>
+      </c>
+      <c r="BU206" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -46456,6 +47696,12 @@
           <t>2-s2.0-84921361788</t>
         </is>
       </c>
+      <c r="BT207" t="n">
+        <v>1529</v>
+      </c>
+      <c r="BU207" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -46681,6 +47927,12 @@
           <t>2-s2.0-84921341809</t>
         </is>
       </c>
+      <c r="BT208" t="n">
+        <v>629</v>
+      </c>
+      <c r="BU208" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -46898,6 +48150,12 @@
           <t>2-s2.0-84922426547</t>
         </is>
       </c>
+      <c r="BT209" t="n">
+        <v>1753</v>
+      </c>
+      <c r="BU209" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -47117,6 +48375,12 @@
           <t>2-s2.0-84921446957</t>
         </is>
       </c>
+      <c r="BT210" t="n">
+        <v>988</v>
+      </c>
+      <c r="BU210" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -47338,6 +48602,12 @@
           <t>2-s2.0-84921745202</t>
         </is>
       </c>
+      <c r="BT211" t="n">
+        <v>1207</v>
+      </c>
+      <c r="BU211" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -47563,6 +48833,12 @@
           <t>2-s2.0-84922032999</t>
         </is>
       </c>
+      <c r="BT212" t="n">
+        <v>1099</v>
+      </c>
+      <c r="BU212" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -47786,6 +49062,12 @@
           <t>2-s2.0-84922363765</t>
         </is>
       </c>
+      <c r="BT213" t="n">
+        <v>482</v>
+      </c>
+      <c r="BU213" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -48010,6 +49292,12 @@
         <is>
           <t>2-s2.0-84923376077</t>
         </is>
+      </c>
+      <c r="BT214" t="n">
+        <v>1166</v>
+      </c>
+      <c r="BU214" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="215">
@@ -48211,6 +49499,12 @@
         <is>
           <t>2-s2.0-84939995854</t>
         </is>
+      </c>
+      <c r="BT215" t="n">
+        <v>596</v>
+      </c>
+      <c r="BU215" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="216">
@@ -48397,6 +49691,12 @@
           <t>2-s2.0-84926042448</t>
         </is>
       </c>
+      <c r="BT216" t="n">
+        <v>131</v>
+      </c>
+      <c r="BU216" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -48622,6 +49922,12 @@
           <t>2-s2.0-84921800263</t>
         </is>
       </c>
+      <c r="BT217" t="n">
+        <v>1983</v>
+      </c>
+      <c r="BU217" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -48843,6 +50149,12 @@
           <t>2-s2.0-84922221632</t>
         </is>
       </c>
+      <c r="BT218" t="n">
+        <v>1888</v>
+      </c>
+      <c r="BU218" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -49070,6 +50382,12 @@
           <t>2-s2.0-84922340071</t>
         </is>
       </c>
+      <c r="BT219" t="n">
+        <v>5307</v>
+      </c>
+      <c r="BU219" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -49287,6 +50605,12 @@
           <t>2-s2.0-84922455705</t>
         </is>
       </c>
+      <c r="BT220" t="n">
+        <v>668</v>
+      </c>
+      <c r="BU220" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -49512,6 +50836,12 @@
           <t>2-s2.0-84922366833</t>
         </is>
       </c>
+      <c r="BT221" t="n">
+        <v>2817</v>
+      </c>
+      <c r="BU221" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -49737,6 +51067,12 @@
           <t>2-s2.0-84922418280</t>
         </is>
       </c>
+      <c r="BT222" t="n">
+        <v>2114</v>
+      </c>
+      <c r="BU222" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -49962,6 +51298,12 @@
           <t>2-s2.0-84922757018</t>
         </is>
       </c>
+      <c r="BT223" t="n">
+        <v>4627</v>
+      </c>
+      <c r="BU223" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -50183,6 +51525,12 @@
           <t>2-s2.0-84923221701</t>
         </is>
       </c>
+      <c r="BT224" t="n">
+        <v>948</v>
+      </c>
+      <c r="BU224" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -50408,6 +51756,12 @@
           <t>2-s2.0-84916603754</t>
         </is>
       </c>
+      <c r="BT225" t="n">
+        <v>977</v>
+      </c>
+      <c r="BU225" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -50633,6 +51987,12 @@
           <t>2-s2.0-84917727437</t>
         </is>
       </c>
+      <c r="BT226" t="n">
+        <v>1008</v>
+      </c>
+      <c r="BU226" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -50858,6 +52218,12 @@
           <t>2-s2.0-84916888621</t>
         </is>
       </c>
+      <c r="BT227" t="n">
+        <v>2184</v>
+      </c>
+      <c r="BU227" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -51083,6 +52449,12 @@
           <t>2-s2.0-84918580447</t>
         </is>
       </c>
+      <c r="BT228" t="n">
+        <v>1181</v>
+      </c>
+      <c r="BU228" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -51308,6 +52680,12 @@
           <t>2-s2.0-84918498789</t>
         </is>
       </c>
+      <c r="BT229" t="n">
+        <v>846</v>
+      </c>
+      <c r="BU229" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -51529,6 +52907,12 @@
           <t>2-s2.0-84918521307</t>
         </is>
       </c>
+      <c r="BT230" t="n">
+        <v>1390</v>
+      </c>
+      <c r="BU230" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -51748,6 +53132,12 @@
           <t>2-s2.0-84919683256</t>
         </is>
       </c>
+      <c r="BT231" t="n">
+        <v>1349</v>
+      </c>
+      <c r="BU231" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -51961,6 +53351,12 @@
           <t>2-s2.0-84919683257</t>
         </is>
       </c>
+      <c r="BT232" t="n">
+        <v>939</v>
+      </c>
+      <c r="BU232" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -52182,6 +53578,12 @@
           <t>2-s2.0-84919681320</t>
         </is>
       </c>
+      <c r="BT233" t="n">
+        <v>512</v>
+      </c>
+      <c r="BU233" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -52399,6 +53801,12 @@
           <t>2-s2.0-84919629423</t>
         </is>
       </c>
+      <c r="BT234" t="n">
+        <v>1740</v>
+      </c>
+      <c r="BU234" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -52620,6 +54028,12 @@
           <t>2-s2.0-84919629424</t>
         </is>
       </c>
+      <c r="BT235" t="n">
+        <v>1976</v>
+      </c>
+      <c r="BU235" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -52845,6 +54259,12 @@
           <t>2-s2.0-84919625542</t>
         </is>
       </c>
+      <c r="BT236" t="n">
+        <v>727</v>
+      </c>
+      <c r="BU236" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -53062,6 +54482,12 @@
           <t>2-s2.0-84920471397</t>
         </is>
       </c>
+      <c r="BT237" t="n">
+        <v>323</v>
+      </c>
+      <c r="BU237" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -53287,6 +54713,12 @@
           <t>2-s2.0-84919912958</t>
         </is>
       </c>
+      <c r="BT238" t="n">
+        <v>797</v>
+      </c>
+      <c r="BU238" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -53511,6 +54943,12 @@
         <is>
           <t>2-s2.0-84919917703</t>
         </is>
+      </c>
+      <c r="BT239" t="n">
+        <v>973</v>
+      </c>
+      <c r="BU239" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="240">
@@ -53721,6 +55159,12 @@
           <t>2-s2.0-84920092270</t>
         </is>
       </c>
+      <c r="BT240" t="n">
+        <v>932</v>
+      </c>
+      <c r="BU240" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -53946,6 +55390,12 @@
           <t>2-s2.0-84920274032</t>
         </is>
       </c>
+      <c r="BT241" t="n">
+        <v>809</v>
+      </c>
+      <c r="BU241" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -54163,6 +55613,12 @@
           <t>2-s2.0-84920277332</t>
         </is>
       </c>
+      <c r="BT242" t="n">
+        <v>662</v>
+      </c>
+      <c r="BU242" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -54388,6 +55844,12 @@
           <t>2-s2.0-84920840104</t>
         </is>
       </c>
+      <c r="BT243" t="n">
+        <v>1023</v>
+      </c>
+      <c r="BU243" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -54613,6 +56075,12 @@
           <t>2-s2.0-84916606831</t>
         </is>
       </c>
+      <c r="BT244" t="n">
+        <v>2349</v>
+      </c>
+      <c r="BU244" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -54838,6 +56306,12 @@
           <t>2-s2.0-84916888348</t>
         </is>
       </c>
+      <c r="BT245" t="n">
+        <v>953</v>
+      </c>
+      <c r="BU245" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -55063,6 +56537,12 @@
           <t>2-s2.0-84917710651</t>
         </is>
       </c>
+      <c r="BT246" t="n">
+        <v>2020</v>
+      </c>
+      <c r="BU246" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -55288,6 +56768,12 @@
           <t>2-s2.0-84917698235</t>
         </is>
       </c>
+      <c r="BT247" t="n">
+        <v>4597</v>
+      </c>
+      <c r="BU247" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -55513,6 +56999,12 @@
           <t>2-s2.0-84918550566</t>
         </is>
       </c>
+      <c r="BT248" t="n">
+        <v>1259</v>
+      </c>
+      <c r="BU248" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -55736,6 +57228,12 @@
           <t>2-s2.0-84918586675</t>
         </is>
       </c>
+      <c r="BT249" t="n">
+        <v>6504</v>
+      </c>
+      <c r="BU249" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -55957,6 +57455,12 @@
           <t>2-s2.0-84917679319</t>
         </is>
       </c>
+      <c r="BT250" t="n">
+        <v>686</v>
+      </c>
+      <c r="BU250" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -56174,6 +57678,12 @@
           <t>2-s2.0-84919627795</t>
         </is>
       </c>
+      <c r="BT251" t="n">
+        <v>3941</v>
+      </c>
+      <c r="BU251" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -56399,6 +57909,12 @@
           <t>2-s2.0-84919608199</t>
         </is>
       </c>
+      <c r="BT252" t="n">
+        <v>1392</v>
+      </c>
+      <c r="BU252" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -56623,6 +58139,12 @@
         <is>
           <t>2-s2.0-84919629425</t>
         </is>
+      </c>
+      <c r="BT253" t="n">
+        <v>1474</v>
+      </c>
+      <c r="BU253" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="254">
@@ -56833,6 +58355,12 @@
           <t>2-s2.0-84919933666</t>
         </is>
       </c>
+      <c r="BT254" t="n">
+        <v>3132</v>
+      </c>
+      <c r="BU254" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -57056,6 +58584,12 @@
           <t>2-s2.0-84920498177</t>
         </is>
       </c>
+      <c r="BT255" t="n">
+        <v>868</v>
+      </c>
+      <c r="BU255" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -57273,6 +58807,12 @@
           <t>2-s2.0-84920816315</t>
         </is>
       </c>
+      <c r="BT256" t="n">
+        <v>692</v>
+      </c>
+      <c r="BU256" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -57500,6 +59040,12 @@
           <t>2-s2.0-84920758599</t>
         </is>
       </c>
+      <c r="BT257" t="n">
+        <v>763</v>
+      </c>
+      <c r="BU257" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -57721,6 +59267,12 @@
           <t>2-s2.0-84909639523</t>
         </is>
       </c>
+      <c r="BT258" t="n">
+        <v>4386</v>
+      </c>
+      <c r="BU258" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -57946,6 +59498,12 @@
           <t>2-s2.0-84919754562</t>
         </is>
       </c>
+      <c r="BT259" t="n">
+        <v>5747</v>
+      </c>
+      <c r="BU259" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -58167,6 +59725,12 @@
           <t>2-s2.0-84910682616</t>
         </is>
       </c>
+      <c r="BT260" t="n">
+        <v>1450</v>
+      </c>
+      <c r="BU260" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -58388,6 +59952,12 @@
           <t>2-s2.0-84910642535</t>
         </is>
       </c>
+      <c r="BT261" t="n">
+        <v>1988</v>
+      </c>
+      <c r="BU261" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -58613,6 +60183,12 @@
           <t>2-s2.0-84910684481</t>
         </is>
       </c>
+      <c r="BT262" t="n">
+        <v>2004</v>
+      </c>
+      <c r="BU262" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -58826,6 +60402,12 @@
           <t>2-s2.0-84911486249</t>
         </is>
       </c>
+      <c r="BT263" t="n">
+        <v>893</v>
+      </c>
+      <c r="BU263" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -59039,6 +60621,12 @@
           <t>2-s2.0-84911492294</t>
         </is>
       </c>
+      <c r="BT264" t="n">
+        <v>653</v>
+      </c>
+      <c r="BU264" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -59264,6 +60852,12 @@
           <t>2-s2.0-84913582717</t>
         </is>
       </c>
+      <c r="BT265" t="n">
+        <v>885</v>
+      </c>
+      <c r="BU265" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -59489,6 +61083,12 @@
           <t>2-s2.0-84911902645</t>
         </is>
       </c>
+      <c r="BT266" t="n">
+        <v>1569</v>
+      </c>
+      <c r="BU266" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -59706,6 +61306,12 @@
           <t>2-s2.0-84912572464</t>
         </is>
       </c>
+      <c r="BT267" t="n">
+        <v>827</v>
+      </c>
+      <c r="BU267" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -59923,6 +61529,12 @@
           <t>2-s2.0-84949115916</t>
         </is>
       </c>
+      <c r="BT268" t="n">
+        <v>1709</v>
+      </c>
+      <c r="BU268" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -60140,6 +61752,12 @@
           <t>2-s2.0-84915815602</t>
         </is>
       </c>
+      <c r="BT269" t="n">
+        <v>2508</v>
+      </c>
+      <c r="BU269" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -60365,6 +61983,12 @@
           <t>2-s2.0-84919754581</t>
         </is>
       </c>
+      <c r="BT270" t="n">
+        <v>3533</v>
+      </c>
+      <c r="BU270" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -60590,6 +62214,12 @@
           <t>2-s2.0-84919637453</t>
         </is>
       </c>
+      <c r="BT271" t="n">
+        <v>2399</v>
+      </c>
+      <c r="BU271" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -60815,6 +62445,12 @@
           <t>2-s2.0-84911912537</t>
         </is>
       </c>
+      <c r="BT272" t="n">
+        <v>4434</v>
+      </c>
+      <c r="BU272" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -61040,6 +62676,12 @@
           <t>2-s2.0-84911924835</t>
         </is>
       </c>
+      <c r="BT273" t="n">
+        <v>965</v>
+      </c>
+      <c r="BU273" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -61265,6 +62907,12 @@
           <t>2-s2.0-84949128008</t>
         </is>
       </c>
+      <c r="BT274" t="n">
+        <v>743</v>
+      </c>
+      <c r="BU274" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -61490,6 +63138,12 @@
           <t>2-s2.0-84914165039</t>
         </is>
       </c>
+      <c r="BT275" t="n">
+        <v>1857</v>
+      </c>
+      <c r="BU275" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -61715,6 +63369,12 @@
           <t>2-s2.0-84914145995</t>
         </is>
       </c>
+      <c r="BT276" t="n">
+        <v>1722</v>
+      </c>
+      <c r="BU276" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -61940,6 +63600,12 @@
           <t>2-s2.0-84915788436</t>
         </is>
       </c>
+      <c r="BT277" t="n">
+        <v>1950</v>
+      </c>
+      <c r="BU277" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -62165,6 +63831,12 @@
           <t>2-s2.0-84919360420</t>
         </is>
       </c>
+      <c r="BT278" t="n">
+        <v>3540</v>
+      </c>
+      <c r="BU278" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -62390,6 +64062,12 @@
           <t>2-s2.0-84919740259</t>
         </is>
       </c>
+      <c r="BT279" t="n">
+        <v>1726</v>
+      </c>
+      <c r="BU279" t="n">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
